--- a/rcads/data/xls/10_Instruments.xlsx
+++ b/rcads/data/xls/10_Instruments.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_10_Instruments"/>
   </sheets>
   <definedNames>
-    <definedName name="_10_Instruments">'_10_Instruments'!$A$1:$F$130</definedName>
+    <definedName name="_10_Instruments">'_10_Instruments'!$A$1:$H$150</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -364,7 +364,7 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>InstrumentCollection</t>
+          <t>InstrumentFamily</t>
         </is>
       </c>
       <c r="D1" s="0" t="inlineStr">
@@ -374,12 +374,22 @@
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>Respondent</t>
+          <t>Informant</t>
         </is>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
           <t>Annotation</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Deprecated</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Authorized</t>
         </is>
       </c>
     </row>
@@ -401,6 +411,12 @@
       <c r="E2" s="0">
         <v>1</v>
       </c>
+      <c r="G2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="0">
@@ -419,6 +435,12 @@
       </c>
       <c r="E3" s="0">
         <v>2</v>
+      </c>
+      <c r="G3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
@@ -439,6 +461,12 @@
       <c r="E4" s="0">
         <v>1</v>
       </c>
+      <c r="G4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="0">
@@ -458,6 +486,12 @@
       <c r="E5" s="0">
         <v>2</v>
       </c>
+      <c r="G5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="0">
@@ -477,6 +511,12 @@
       <c r="E6" s="0">
         <v>1</v>
       </c>
+      <c r="G6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="0">
@@ -496,6 +536,12 @@
       <c r="E7" s="0">
         <v>2</v>
       </c>
+      <c r="G7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="0">
@@ -515,6 +561,12 @@
       <c r="E8" s="0">
         <v>1</v>
       </c>
+      <c r="G8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="0">
@@ -534,6 +586,12 @@
       <c r="E9" s="0">
         <v>2</v>
       </c>
+      <c r="G9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="0">
@@ -553,6 +611,12 @@
       <c r="E10" s="0">
         <v>1</v>
       </c>
+      <c r="G10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="0">
@@ -572,6 +636,12 @@
       <c r="E11" s="0">
         <v>2</v>
       </c>
+      <c r="G11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="0">
@@ -591,6 +661,12 @@
       <c r="E12" s="0">
         <v>1</v>
       </c>
+      <c r="G12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="0">
@@ -610,6 +686,12 @@
       <c r="E13" s="0">
         <v>2</v>
       </c>
+      <c r="G13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="0">
@@ -617,7 +699,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>RCADS-47-Y-FR</t>
+          <t>RCADS-47-Y-FR-1</t>
         </is>
       </c>
       <c r="C14" s="0">
@@ -628,6 +710,12 @@
       </c>
       <c r="E14" s="0">
         <v>1</v>
+      </c>
+      <c r="G14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
@@ -636,7 +724,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>RCADS-47-CG-FR</t>
+          <t>RCADS-47-CG-FR-CA</t>
         </is>
       </c>
       <c r="C15" s="0">
@@ -647,6 +735,17 @@
       </c>
       <c r="E15" s="0">
         <v>2</v>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Canadian French; no items</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
@@ -655,7 +754,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>RCADS-25-Y-FR</t>
+          <t>RCADS-25-Y-FR-1</t>
         </is>
       </c>
       <c r="C16" s="0">
@@ -666,6 +765,12 @@
       </c>
       <c r="E16" s="0">
         <v>1</v>
+      </c>
+      <c r="G16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
@@ -674,7 +779,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>RCADS-25-CG-FR</t>
+          <t>RCADS-25-CG-FR-FR</t>
         </is>
       </c>
       <c r="C17" s="0">
@@ -685,6 +790,17 @@
       </c>
       <c r="E17" s="0">
         <v>2</v>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>No items; Based on Boustani update of France French version</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
@@ -705,6 +821,12 @@
       <c r="E18" s="0">
         <v>1</v>
       </c>
+      <c r="G18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="0">
@@ -724,6 +846,12 @@
       <c r="E19" s="0">
         <v>2</v>
       </c>
+      <c r="G19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="0">
@@ -743,6 +871,12 @@
       <c r="E20" s="0">
         <v>1</v>
       </c>
+      <c r="G20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="0">
@@ -762,6 +896,12 @@
       <c r="E21" s="0">
         <v>2</v>
       </c>
+      <c r="G21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="0">
@@ -781,6 +921,12 @@
       <c r="E22" s="0">
         <v>1</v>
       </c>
+      <c r="G22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="0">
@@ -800,6 +946,17 @@
       <c r="E23" s="0">
         <v>2</v>
       </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="0">
@@ -819,6 +976,12 @@
       <c r="E24" s="0">
         <v>1</v>
       </c>
+      <c r="G24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="0">
@@ -838,6 +1001,17 @@
       <c r="E25" s="0">
         <v>2</v>
       </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="0">
@@ -857,6 +1031,12 @@
       <c r="E26" s="0">
         <v>1</v>
       </c>
+      <c r="G26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="0">
@@ -876,6 +1056,12 @@
       <c r="E27" s="0">
         <v>2</v>
       </c>
+      <c r="G27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="0">
@@ -895,6 +1081,12 @@
       <c r="E28" s="0">
         <v>1</v>
       </c>
+      <c r="G28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="0">
@@ -914,6 +1106,12 @@
       <c r="E29" s="0">
         <v>2</v>
       </c>
+      <c r="G29" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="0">
@@ -933,6 +1131,12 @@
       <c r="E30" s="0">
         <v>1</v>
       </c>
+      <c r="G30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="0">
@@ -952,6 +1156,12 @@
       <c r="E31" s="0">
         <v>2</v>
       </c>
+      <c r="G31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="0">
@@ -971,6 +1181,12 @@
       <c r="E32" s="0">
         <v>1</v>
       </c>
+      <c r="G32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="0">
@@ -990,6 +1206,12 @@
       <c r="E33" s="0">
         <v>2</v>
       </c>
+      <c r="G33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="0">
@@ -1009,6 +1231,12 @@
       <c r="E34" s="0">
         <v>1</v>
       </c>
+      <c r="G34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="0">
@@ -1028,6 +1256,12 @@
       <c r="E35" s="0">
         <v>2</v>
       </c>
+      <c r="G35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="0">
@@ -1047,6 +1281,12 @@
       <c r="E36" s="0">
         <v>1</v>
       </c>
+      <c r="G36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="0">
@@ -1066,6 +1306,12 @@
       <c r="E37" s="0">
         <v>2</v>
       </c>
+      <c r="G37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="0">
@@ -1085,6 +1331,12 @@
       <c r="E38" s="0">
         <v>1</v>
       </c>
+      <c r="G38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="0">
@@ -1104,6 +1356,12 @@
       <c r="E39" s="0">
         <v>2</v>
       </c>
+      <c r="G39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="0">
@@ -1123,6 +1381,12 @@
       <c r="E40" s="0">
         <v>1</v>
       </c>
+      <c r="G40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="0">
@@ -1142,6 +1406,12 @@
       <c r="E41" s="0">
         <v>2</v>
       </c>
+      <c r="G41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="0">
@@ -1161,6 +1431,12 @@
       <c r="E42" s="0">
         <v>1</v>
       </c>
+      <c r="G42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="0">
@@ -1180,6 +1456,12 @@
       <c r="E43" s="0">
         <v>2</v>
       </c>
+      <c r="G43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="0">
@@ -1199,6 +1481,12 @@
       <c r="E44" s="0">
         <v>1</v>
       </c>
+      <c r="G44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="0">
@@ -1218,6 +1506,12 @@
       <c r="E45" s="0">
         <v>2</v>
       </c>
+      <c r="G45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="0">
@@ -1237,6 +1531,12 @@
       <c r="E46" s="0">
         <v>1</v>
       </c>
+      <c r="G46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="0">
@@ -1256,6 +1556,12 @@
       <c r="E47" s="0">
         <v>2</v>
       </c>
+      <c r="G47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="0">
@@ -1275,6 +1581,12 @@
       <c r="E48" s="0">
         <v>1</v>
       </c>
+      <c r="G48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="0">
@@ -1294,6 +1606,12 @@
       <c r="E49" s="0">
         <v>2</v>
       </c>
+      <c r="G49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="0">
@@ -1313,6 +1631,12 @@
       <c r="E50" s="0">
         <v>1</v>
       </c>
+      <c r="G50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="0">
@@ -1332,6 +1656,12 @@
       <c r="E51" s="0">
         <v>2</v>
       </c>
+      <c r="G51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="0">
@@ -1351,6 +1681,12 @@
       <c r="E52" s="0">
         <v>1</v>
       </c>
+      <c r="G52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="0">
@@ -1370,6 +1706,12 @@
       <c r="E53" s="0">
         <v>2</v>
       </c>
+      <c r="G53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="0">
@@ -1389,6 +1731,12 @@
       <c r="E54" s="0">
         <v>1</v>
       </c>
+      <c r="G54" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="0">
@@ -1408,6 +1756,12 @@
       <c r="E55" s="0">
         <v>2</v>
       </c>
+      <c r="G55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="0">
@@ -1427,6 +1781,12 @@
       <c r="E56" s="0">
         <v>1</v>
       </c>
+      <c r="G56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="0">
@@ -1446,6 +1806,12 @@
       <c r="E57" s="0">
         <v>2</v>
       </c>
+      <c r="G57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="0">
@@ -1465,6 +1831,12 @@
       <c r="E58" s="0">
         <v>1</v>
       </c>
+      <c r="G58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="0">
@@ -1484,6 +1856,12 @@
       <c r="E59" s="0">
         <v>2</v>
       </c>
+      <c r="G59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="0">
@@ -1503,6 +1881,12 @@
       <c r="E60" s="0">
         <v>1</v>
       </c>
+      <c r="G60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="0">
@@ -1522,6 +1906,12 @@
       <c r="E61" s="0">
         <v>2</v>
       </c>
+      <c r="G61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="0">
@@ -1541,6 +1931,12 @@
       <c r="E62" s="0">
         <v>1</v>
       </c>
+      <c r="G62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="0">
@@ -1560,6 +1956,17 @@
       <c r="E63" s="0">
         <v>2</v>
       </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="0">
@@ -1579,6 +1986,12 @@
       <c r="E64" s="0">
         <v>1</v>
       </c>
+      <c r="G64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="0">
@@ -1598,6 +2011,17 @@
       <c r="E65" s="0">
         <v>2</v>
       </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="0">
@@ -1617,6 +2041,12 @@
       <c r="E66" s="0">
         <v>1</v>
       </c>
+      <c r="G66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="0">
@@ -1636,6 +2066,12 @@
       <c r="E67" s="0">
         <v>2</v>
       </c>
+      <c r="G67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="0">
@@ -1655,6 +2091,12 @@
       <c r="E68" s="0">
         <v>1</v>
       </c>
+      <c r="G68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="0">
@@ -1674,6 +2116,12 @@
       <c r="E69" s="0">
         <v>2</v>
       </c>
+      <c r="G69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="0">
@@ -1693,6 +2141,12 @@
       <c r="E70" s="0">
         <v>1</v>
       </c>
+      <c r="G70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="0">
@@ -1712,6 +2166,12 @@
       <c r="E71" s="0">
         <v>2</v>
       </c>
+      <c r="G71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="0">
@@ -1731,6 +2191,12 @@
       <c r="E72" s="0">
         <v>1</v>
       </c>
+      <c r="G72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="0">
@@ -1750,6 +2216,12 @@
       <c r="E73" s="0">
         <v>2</v>
       </c>
+      <c r="G73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="0">
@@ -1769,6 +2241,12 @@
       <c r="E74" s="0">
         <v>1</v>
       </c>
+      <c r="G74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="0">
@@ -1788,6 +2266,12 @@
       <c r="E75" s="0">
         <v>2</v>
       </c>
+      <c r="G75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="0">
@@ -1807,6 +2291,12 @@
       <c r="E76" s="0">
         <v>1</v>
       </c>
+      <c r="G76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="0">
@@ -1826,6 +2316,12 @@
       <c r="E77" s="0">
         <v>2</v>
       </c>
+      <c r="G77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="0">
@@ -1845,6 +2341,17 @@
       <c r="E78" s="0">
         <v>1</v>
       </c>
+      <c r="F78" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="0">
@@ -1864,6 +2371,17 @@
       <c r="E79" s="0">
         <v>2</v>
       </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="0">
@@ -1883,6 +2401,17 @@
       <c r="E80" s="0">
         <v>1</v>
       </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="0">
@@ -1902,6 +2431,17 @@
       <c r="E81" s="0">
         <v>2</v>
       </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="0">
@@ -1921,6 +2461,12 @@
       <c r="E82" s="0">
         <v>1</v>
       </c>
+      <c r="G82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="0">
@@ -1940,6 +2486,12 @@
       <c r="E83" s="0">
         <v>2</v>
       </c>
+      <c r="G83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="0">
@@ -1959,6 +2511,12 @@
       <c r="E84" s="0">
         <v>1</v>
       </c>
+      <c r="G84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="0">
@@ -1978,6 +2536,12 @@
       <c r="E85" s="0">
         <v>2</v>
       </c>
+      <c r="G85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="0">
@@ -1997,6 +2561,12 @@
       <c r="E86" s="0">
         <v>1</v>
       </c>
+      <c r="G86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="0">
@@ -2004,7 +2574,7 @@
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>RCADS-47-CG-SV</t>
+          <t>RCADS-47-CG-SV-1</t>
         </is>
       </c>
       <c r="C87" s="0">
@@ -2015,6 +2585,12 @@
       </c>
       <c r="E87" s="0">
         <v>2</v>
+      </c>
+      <c r="G87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="88">
@@ -2035,6 +2611,12 @@
       <c r="E88" s="0">
         <v>1</v>
       </c>
+      <c r="G88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="0">
@@ -2054,6 +2636,12 @@
       <c r="E89" s="0">
         <v>2</v>
       </c>
+      <c r="G89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="0">
@@ -2073,6 +2661,12 @@
       <c r="E90" s="0">
         <v>1</v>
       </c>
+      <c r="G90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="0">
@@ -2092,6 +2686,12 @@
       <c r="E91" s="0">
         <v>2</v>
       </c>
+      <c r="G91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="0">
@@ -2111,6 +2711,12 @@
       <c r="E92" s="0">
         <v>1</v>
       </c>
+      <c r="G92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="0">
@@ -2130,6 +2736,12 @@
       <c r="E93" s="0">
         <v>2</v>
       </c>
+      <c r="G93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="0">
@@ -2149,6 +2761,17 @@
       <c r="E94" s="0">
         <v>1</v>
       </c>
+      <c r="F94" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="0">
@@ -2168,6 +2791,17 @@
       <c r="E95" s="0">
         <v>2</v>
       </c>
+      <c r="F95" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="0">
@@ -2187,6 +2821,17 @@
       <c r="E96" s="0">
         <v>1</v>
       </c>
+      <c r="F96" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="0">
@@ -2206,6 +2851,17 @@
       <c r="E97" s="0">
         <v>2</v>
       </c>
+      <c r="F97" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="0">
@@ -2225,6 +2881,12 @@
       <c r="E98" s="0">
         <v>1</v>
       </c>
+      <c r="G98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="0">
@@ -2244,6 +2906,12 @@
       <c r="E99" s="0">
         <v>2</v>
       </c>
+      <c r="G99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="0">
@@ -2263,6 +2931,12 @@
       <c r="E100" s="0">
         <v>1</v>
       </c>
+      <c r="G100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="0">
@@ -2282,6 +2956,12 @@
       <c r="E101" s="0">
         <v>2</v>
       </c>
+      <c r="G101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="0">
@@ -2301,6 +2981,12 @@
       <c r="E102" s="0">
         <v>1</v>
       </c>
+      <c r="G102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="0">
@@ -2320,6 +3006,12 @@
       <c r="E103" s="0">
         <v>2</v>
       </c>
+      <c r="G103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="0">
@@ -2339,6 +3031,17 @@
       <c r="E104" s="0">
         <v>1</v>
       </c>
+      <c r="F104" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="0">
@@ -2358,6 +3061,17 @@
       <c r="E105" s="0">
         <v>2</v>
       </c>
+      <c r="F105" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="0">
@@ -2382,6 +3096,12 @@
           <t>For autism eary intervention context</t>
         </is>
       </c>
+      <c r="G106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="0">
@@ -2401,6 +3121,12 @@
       <c r="E107" s="0">
         <v>4</v>
       </c>
+      <c r="G107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="0">
@@ -2425,6 +3151,12 @@
           <t>Manasi Kumar MMA derivative</t>
         </is>
       </c>
+      <c r="G108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="0">
@@ -2449,6 +3181,12 @@
           <t>Manasi Kumar MMA derivative 2</t>
         </is>
       </c>
+      <c r="G109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="0">
@@ -2468,6 +3206,17 @@
       <c r="E110" s="0">
         <v>1</v>
       </c>
+      <c r="F110" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="0">
@@ -2487,6 +3236,17 @@
       <c r="E111" s="0">
         <v>2</v>
       </c>
+      <c r="F111" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="0">
@@ -2506,6 +3266,12 @@
       <c r="E112" s="0">
         <v>1</v>
       </c>
+      <c r="G112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="0">
@@ -2525,6 +3291,12 @@
       <c r="E113" s="0">
         <v>2</v>
       </c>
+      <c r="G113" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="0">
@@ -2532,7 +3304,7 @@
       </c>
       <c r="B114" s="0" t="inlineStr">
         <is>
-          <t>RCADS-47-Y-FR-2</t>
+          <t>RCADS-47-Y-FR-FR-2</t>
         </is>
       </c>
       <c r="C114" s="0">
@@ -2543,6 +3315,17 @@
       </c>
       <c r="E114" s="0">
         <v>1</v>
+      </c>
+      <c r="F114" s="0" t="inlineStr">
+        <is>
+          <t>Boustani update</t>
+        </is>
+      </c>
+      <c r="G114" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="115">
@@ -2563,6 +3346,17 @@
       <c r="E115" s="0">
         <v>1</v>
       </c>
+      <c r="F115" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="0">
@@ -2582,6 +3376,17 @@
       <c r="E116" s="0">
         <v>2</v>
       </c>
+      <c r="F116" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G116" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="0">
@@ -2601,6 +3406,17 @@
       <c r="E117" s="0">
         <v>1</v>
       </c>
+      <c r="F117" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G117" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="0">
@@ -2620,6 +3436,17 @@
       <c r="E118" s="0">
         <v>2</v>
       </c>
+      <c r="F118" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G118" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="0">
@@ -2639,6 +3466,17 @@
       <c r="E119" s="0">
         <v>1</v>
       </c>
+      <c r="F119" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="0">
@@ -2658,6 +3496,17 @@
       <c r="E120" s="0">
         <v>2</v>
       </c>
+      <c r="F120" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="0">
@@ -2677,6 +3526,17 @@
       <c r="E121" s="0">
         <v>1</v>
       </c>
+      <c r="F121" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="0">
@@ -2696,6 +3556,17 @@
       <c r="E122" s="0">
         <v>2</v>
       </c>
+      <c r="F122" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G122" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="0">
@@ -2715,6 +3586,17 @@
       <c r="E123" s="0">
         <v>1</v>
       </c>
+      <c r="F123" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G123" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="0">
@@ -2734,6 +3616,17 @@
       <c r="E124" s="0">
         <v>2</v>
       </c>
+      <c r="F124" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G124" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="0">
@@ -2753,6 +3646,17 @@
       <c r="E125" s="0">
         <v>1</v>
       </c>
+      <c r="F125" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="0">
@@ -2772,6 +3676,17 @@
       <c r="E126" s="0">
         <v>2</v>
       </c>
+      <c r="F126" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G126" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="0">
@@ -2791,6 +3706,17 @@
       <c r="E127" s="0">
         <v>1</v>
       </c>
+      <c r="F127" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="0">
@@ -2810,6 +3736,17 @@
       <c r="E128" s="0">
         <v>2</v>
       </c>
+      <c r="F128" s="0" t="inlineStr">
+        <is>
+          <t>Not yet generated</t>
+        </is>
+      </c>
+      <c r="G128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="0">
@@ -2829,6 +3766,12 @@
       <c r="E129" s="0">
         <v>1</v>
       </c>
+      <c r="G129" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="0">
@@ -2847,6 +3790,562 @@
       </c>
       <c r="E130" s="0">
         <v>2</v>
+      </c>
+      <c r="G130" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="0">
+        <v>130</v>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-SV-2</t>
+        </is>
+      </c>
+      <c r="C131" s="0">
+        <v>1</v>
+      </c>
+      <c r="D131" s="0">
+        <v>22</v>
+      </c>
+      <c r="E131" s="0">
+        <v>2</v>
+      </c>
+      <c r="G131" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="0">
+        <v>131</v>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>GAD-7</t>
+        </is>
+      </c>
+      <c r="C132" s="0">
+        <v>5</v>
+      </c>
+      <c r="D132" s="0">
+        <v>1</v>
+      </c>
+      <c r="E132" s="0">
+        <v>4</v>
+      </c>
+      <c r="G132" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="0">
+        <v>132</v>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-HI-1</t>
+        </is>
+      </c>
+      <c r="C133" s="0">
+        <v>1</v>
+      </c>
+      <c r="D133" s="0">
+        <v>31</v>
+      </c>
+      <c r="E133" s="0">
+        <v>1</v>
+      </c>
+      <c r="F133" s="0" t="inlineStr">
+        <is>
+          <t>New translator found spelling mistakes and said that this version has complex/formal words that are not suitable for laypersons across all of India</t>
+        </is>
+      </c>
+      <c r="G133" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="0">
+        <v>133</v>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-HI</t>
+        </is>
+      </c>
+      <c r="C134" s="0">
+        <v>1</v>
+      </c>
+      <c r="D134" s="0">
+        <v>31</v>
+      </c>
+      <c r="E134" s="0">
+        <v>1</v>
+      </c>
+      <c r="G134" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="0">
+        <v>134</v>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-HI</t>
+        </is>
+      </c>
+      <c r="C135" s="0">
+        <v>1</v>
+      </c>
+      <c r="D135" s="0">
+        <v>31</v>
+      </c>
+      <c r="E135" s="0">
+        <v>1</v>
+      </c>
+      <c r="G135" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="0">
+        <v>135</v>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-HI-2</t>
+        </is>
+      </c>
+      <c r="C136" s="0">
+        <v>1</v>
+      </c>
+      <c r="D136" s="0">
+        <v>31</v>
+      </c>
+      <c r="E136" s="0">
+        <v>1</v>
+      </c>
+      <c r="G136" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="0">
+        <v>136</v>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-HI</t>
+        </is>
+      </c>
+      <c r="C137" s="0">
+        <v>1</v>
+      </c>
+      <c r="D137" s="0">
+        <v>31</v>
+      </c>
+      <c r="E137" s="0">
+        <v>1</v>
+      </c>
+      <c r="G137" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="0">
+        <v>137</v>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-PA</t>
+        </is>
+      </c>
+      <c r="C138" s="0">
+        <v>1</v>
+      </c>
+      <c r="D138" s="0">
+        <v>32</v>
+      </c>
+      <c r="E138" s="0">
+        <v>1</v>
+      </c>
+      <c r="G138" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="0">
+        <v>138</v>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-PA</t>
+        </is>
+      </c>
+      <c r="C139" s="0">
+        <v>1</v>
+      </c>
+      <c r="D139" s="0">
+        <v>32</v>
+      </c>
+      <c r="E139" s="0">
+        <v>2</v>
+      </c>
+      <c r="G139" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="0">
+        <v>139</v>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-PA</t>
+        </is>
+      </c>
+      <c r="C140" s="0">
+        <v>1</v>
+      </c>
+      <c r="D140" s="0">
+        <v>32</v>
+      </c>
+      <c r="E140" s="0">
+        <v>1</v>
+      </c>
+      <c r="G140" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="0">
+        <v>140</v>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-PA</t>
+        </is>
+      </c>
+      <c r="C141" s="0">
+        <v>1</v>
+      </c>
+      <c r="D141" s="0">
+        <v>32</v>
+      </c>
+      <c r="E141" s="0">
+        <v>2</v>
+      </c>
+      <c r="G141" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="0">
+        <v>141</v>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-SR</t>
+        </is>
+      </c>
+      <c r="C142" s="0">
+        <v>1</v>
+      </c>
+      <c r="D142" s="0">
+        <v>27</v>
+      </c>
+      <c r="E142" s="0">
+        <v>1</v>
+      </c>
+      <c r="F142" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="0">
+        <v>142</v>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-SR</t>
+        </is>
+      </c>
+      <c r="C143" s="0">
+        <v>1</v>
+      </c>
+      <c r="D143" s="0">
+        <v>27</v>
+      </c>
+      <c r="E143" s="0">
+        <v>1</v>
+      </c>
+      <c r="F143" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G143" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="0">
+        <v>143</v>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-MN</t>
+        </is>
+      </c>
+      <c r="C144" s="0">
+        <v>1</v>
+      </c>
+      <c r="D144" s="0">
+        <v>38</v>
+      </c>
+      <c r="E144" s="0">
+        <v>1</v>
+      </c>
+      <c r="F144" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="0">
+        <v>144</v>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-FR-FR-1</t>
+        </is>
+      </c>
+      <c r="C145" s="0">
+        <v>1</v>
+      </c>
+      <c r="D145" s="0">
+        <v>30</v>
+      </c>
+      <c r="E145" s="0">
+        <v>2</v>
+      </c>
+      <c r="F145" s="0" t="inlineStr">
+        <is>
+          <t>France French, we think</t>
+        </is>
+      </c>
+      <c r="G145" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="0">
+        <v>145</v>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-FR-FR-2</t>
+        </is>
+      </c>
+      <c r="C146" s="0">
+        <v>1</v>
+      </c>
+      <c r="D146" s="0">
+        <v>30</v>
+      </c>
+      <c r="E146" s="0">
+        <v>2</v>
+      </c>
+      <c r="F146" s="0" t="inlineStr">
+        <is>
+          <t>Boustani update - France French, we think</t>
+        </is>
+      </c>
+      <c r="G146" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="0">
+        <v>146</v>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-FR-FR-2</t>
+        </is>
+      </c>
+      <c r="C147" s="0">
+        <v>1</v>
+      </c>
+      <c r="D147" s="0">
+        <v>30</v>
+      </c>
+      <c r="E147" s="0">
+        <v>1</v>
+      </c>
+      <c r="F147" s="0" t="inlineStr">
+        <is>
+          <t>Boustani update</t>
+        </is>
+      </c>
+      <c r="G147" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="0">
+        <v>147</v>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-MN</t>
+        </is>
+      </c>
+      <c r="C148" s="0">
+        <v>1</v>
+      </c>
+      <c r="D148" s="0">
+        <v>38</v>
+      </c>
+      <c r="E148" s="0">
+        <v>2</v>
+      </c>
+      <c r="F148" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G148" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="0">
+        <v>148</v>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-MN</t>
+        </is>
+      </c>
+      <c r="C149" s="0">
+        <v>1</v>
+      </c>
+      <c r="D149" s="0">
+        <v>38</v>
+      </c>
+      <c r="E149" s="0">
+        <v>1</v>
+      </c>
+      <c r="F149" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G149" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="0">
+        <v>149</v>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-MN</t>
+        </is>
+      </c>
+      <c r="C150" s="0">
+        <v>1</v>
+      </c>
+      <c r="D150" s="0">
+        <v>38</v>
+      </c>
+      <c r="E150" s="0">
+        <v>2</v>
+      </c>
+      <c r="F150" s="0" t="inlineStr">
+        <is>
+          <t>No items</t>
+        </is>
+      </c>
+      <c r="G150" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/rcads/data/xls/10_Instruments.xlsx
+++ b/rcads/data/xls/10_Instruments.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_10_Instruments"/>
   </sheets>
   <definedNames>
-    <definedName name="_10_Instruments">'_10_Instruments'!$A$1:$H$150</definedName>
+    <definedName name="_10_Instruments">'_10_Instruments'!$A$1:$H$154</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -699,7 +699,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>RCADS-47-Y-FR-1</t>
+          <t>RCADS-47-Y-FR-FR-1</t>
         </is>
       </c>
       <c r="C14" s="0">
@@ -710,6 +710,11 @@
       </c>
       <c r="E14" s="0">
         <v>1</v>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>OG Bouvard version</t>
+        </is>
       </c>
       <c r="G14" s="0" t="b">
         <v>0</v>
@@ -724,21 +729,21 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>RCADS-47-CG-FR-CA</t>
+          <t>RCADS-47-CG-FR-CA-1</t>
         </is>
       </c>
       <c r="C15" s="0">
         <v>1</v>
       </c>
       <c r="D15" s="0">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E15" s="0">
         <v>2</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>Canadian French; no items</t>
+          <t>Chantal Caron et al 2018</t>
         </is>
       </c>
       <c r="G15" s="0" t="b">
@@ -754,7 +759,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>RCADS-25-Y-FR-1</t>
+          <t>RCADS-25-Y-FR-FR-1</t>
         </is>
       </c>
       <c r="C16" s="0">
@@ -765,6 +770,11 @@
       </c>
       <c r="E16" s="0">
         <v>1</v>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>RCADS team generated</t>
+        </is>
       </c>
       <c r="G16" s="0" t="b">
         <v>0</v>
@@ -779,7 +789,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>RCADS-25-CG-FR-FR</t>
+          <t>RCADS-25-CG-FR-FR-1</t>
         </is>
       </c>
       <c r="C17" s="0">
@@ -2341,13 +2351,8 @@
       <c r="E78" s="0">
         <v>1</v>
       </c>
-      <c r="F78" s="0" t="inlineStr">
-        <is>
-          <t>No items</t>
-        </is>
-      </c>
       <c r="G78" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="0" t="b">
         <v>0</v>
@@ -2407,7 +2412,7 @@
         </is>
       </c>
       <c r="G80" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="0" t="b">
         <v>0</v>
@@ -2763,7 +2768,7 @@
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>No items</t>
+          <t>incorrect item numbering after 29, missing item stem concept for item 35</t>
         </is>
       </c>
       <c r="G94" s="0" t="b">
@@ -2791,13 +2796,8 @@
       <c r="E95" s="0">
         <v>2</v>
       </c>
-      <c r="F95" s="0" t="inlineStr">
-        <is>
-          <t>No items</t>
-        </is>
-      </c>
       <c r="G95" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" s="0" t="b">
         <v>0</v>
@@ -2821,13 +2821,8 @@
       <c r="E96" s="0">
         <v>1</v>
       </c>
-      <c r="F96" s="0" t="inlineStr">
-        <is>
-          <t>No items</t>
-        </is>
-      </c>
       <c r="G96" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" s="0" t="b">
         <v>0</v>
@@ -2851,13 +2846,8 @@
       <c r="E97" s="0">
         <v>2</v>
       </c>
-      <c r="F97" s="0" t="inlineStr">
-        <is>
-          <t>No items</t>
-        </is>
-      </c>
       <c r="G97" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="0" t="b">
         <v>0</v>
@@ -3322,7 +3312,7 @@
         </is>
       </c>
       <c r="G114" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" s="0" t="b">
         <v>0</v>
@@ -4174,21 +4164,21 @@
       </c>
       <c r="B145" s="0" t="inlineStr">
         <is>
-          <t>RCADS-47-CG-FR-FR-1</t>
+          <t>RCADS-47-CG-FR-1</t>
         </is>
       </c>
       <c r="C145" s="0">
         <v>1</v>
       </c>
       <c r="D145" s="0">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E145" s="0">
         <v>2</v>
       </c>
       <c r="F145" s="0" t="inlineStr">
         <is>
-          <t>France French, we think</t>
+          <t>Dayer 2023</t>
         </is>
       </c>
       <c r="G145" s="0" t="b">
@@ -4204,21 +4194,21 @@
       </c>
       <c r="B146" s="0" t="inlineStr">
         <is>
-          <t>RCADS-47-CG-FR-FR-2</t>
+          <t>RCADS-47-CG-FR-2</t>
         </is>
       </c>
       <c r="C146" s="0">
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E146" s="0">
         <v>2</v>
       </c>
       <c r="F146" s="0" t="inlineStr">
         <is>
-          <t>Boustani update - France French, we think</t>
+          <t>Unauthorized version from NHS (UK)</t>
         </is>
       </c>
       <c r="G146" s="0" t="b">
@@ -4241,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="0">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E147" s="0">
         <v>1</v>
@@ -4346,6 +4336,126 @@
       </c>
       <c r="H150" s="0" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="0">
+        <v>150</v>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-FR-CA-1</t>
+        </is>
+      </c>
+      <c r="C151" s="0">
+        <v>1</v>
+      </c>
+      <c r="D151" s="0">
+        <v>30</v>
+      </c>
+      <c r="E151" s="0">
+        <v>1</v>
+      </c>
+      <c r="F151" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="G151" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="0">
+        <v>151</v>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-FR-3</t>
+        </is>
+      </c>
+      <c r="C152" s="0">
+        <v>1</v>
+      </c>
+      <c r="D152" s="0">
+        <v>8</v>
+      </c>
+      <c r="E152" s="0">
+        <v>2</v>
+      </c>
+      <c r="F152" s="0" t="inlineStr">
+        <is>
+          <t>Boustani update, combined versions 1 and 2 while consulting youth version 1</t>
+        </is>
+      </c>
+      <c r="G152" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="0">
+        <v>152</v>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-FR-CA-2</t>
+        </is>
+      </c>
+      <c r="C153" s="0">
+        <v>1</v>
+      </c>
+      <c r="D153" s="0">
+        <v>30</v>
+      </c>
+      <c r="E153" s="0">
+        <v>1</v>
+      </c>
+      <c r="F153" s="0" t="inlineStr">
+        <is>
+          <t>No items; Unauthorized Canadian changes</t>
+        </is>
+      </c>
+      <c r="G153" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="154">
+      <c r="A154" s="0">
+        <v>153</v>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-FR-CA-1</t>
+        </is>
+      </c>
+      <c r="C154" s="0">
+        <v>1</v>
+      </c>
+      <c r="D154" s="0">
+        <v>30</v>
+      </c>
+      <c r="E154" s="0">
+        <v>2</v>
+      </c>
+      <c r="F154" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="G154" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/rcads/data/xls/10_Instruments.xlsx
+++ b/rcads/data/xls/10_Instruments.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_10_Instruments"/>
   </sheets>
   <definedNames>
-    <definedName name="_10_Instruments">'_10_Instruments'!$A$1:$H$154</definedName>
+    <definedName name="_10_Instruments">'_10_Instruments'!$A$1:$I$158</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -392,6 +392,11 @@
           <t>Authorized</t>
         </is>
       </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>ReadRighttoLeft</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="0">
@@ -417,6 +422,9 @@
       <c r="H2" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I2" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="0">
@@ -440,6 +448,9 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="b">
         <v>0</v>
       </c>
     </row>
@@ -467,6 +478,9 @@
       <c r="H4" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I4" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="0">
@@ -492,6 +506,9 @@
       <c r="H5" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I5" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="0">
@@ -517,6 +534,9 @@
       <c r="H6" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I6" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="0">
@@ -542,6 +562,9 @@
       <c r="H7" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I7" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="0">
@@ -567,6 +590,9 @@
       <c r="H8" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I8" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="0">
@@ -592,6 +618,9 @@
       <c r="H9" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I9" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="0">
@@ -617,6 +646,9 @@
       <c r="H10" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I10" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="0">
@@ -642,6 +674,9 @@
       <c r="H11" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I11" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="0">
@@ -667,6 +702,9 @@
       <c r="H12" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I12" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="0">
@@ -692,6 +730,9 @@
       <c r="H13" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I13" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="0">
@@ -722,6 +763,9 @@
       <c r="H14" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I14" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="0">
@@ -752,6 +796,9 @@
       <c r="H15" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I15" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="0">
@@ -782,6 +829,9 @@
       <c r="H16" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I16" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="0">
@@ -812,6 +862,9 @@
       <c r="H17" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I17" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="0">
@@ -837,6 +890,9 @@
       <c r="H18" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I18" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="0">
@@ -862,6 +918,9 @@
       <c r="H19" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I19" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="0">
@@ -887,6 +946,9 @@
       <c r="H20" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I20" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="0">
@@ -912,6 +974,9 @@
       <c r="H21" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I21" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="0">
@@ -937,6 +1002,9 @@
       <c r="H22" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I22" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="0">
@@ -967,6 +1035,9 @@
       <c r="H23" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I23" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="0">
@@ -992,6 +1063,9 @@
       <c r="H24" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I24" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="0">
@@ -1022,6 +1096,9 @@
       <c r="H25" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I25" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="0">
@@ -1047,6 +1124,9 @@
       <c r="H26" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I26" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="0">
@@ -1072,6 +1152,9 @@
       <c r="H27" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I27" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="0">
@@ -1097,6 +1180,9 @@
       <c r="H28" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I28" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="0">
@@ -1122,6 +1208,9 @@
       <c r="H29" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I29" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="0">
@@ -1147,6 +1236,9 @@
       <c r="H30" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I30" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="0">
@@ -1172,6 +1264,9 @@
       <c r="H31" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I31" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="0">
@@ -1197,6 +1292,9 @@
       <c r="H32" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I32" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="0">
@@ -1222,6 +1320,9 @@
       <c r="H33" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I33" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="0">
@@ -1247,6 +1348,9 @@
       <c r="H34" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I34" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="0">
@@ -1272,6 +1376,9 @@
       <c r="H35" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I35" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="0">
@@ -1297,6 +1404,9 @@
       <c r="H36" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I36" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="0">
@@ -1322,6 +1432,9 @@
       <c r="H37" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I37" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="0">
@@ -1347,6 +1460,9 @@
       <c r="H38" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I38" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="0">
@@ -1372,6 +1488,9 @@
       <c r="H39" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I39" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="0">
@@ -1397,6 +1516,9 @@
       <c r="H40" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I40" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="0">
@@ -1422,6 +1544,9 @@
       <c r="H41" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I41" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="0">
@@ -1447,6 +1572,9 @@
       <c r="H42" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I42" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="0">
@@ -1472,6 +1600,9 @@
       <c r="H43" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I43" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="0">
@@ -1497,6 +1628,9 @@
       <c r="H44" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I44" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="0">
@@ -1522,6 +1656,9 @@
       <c r="H45" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I45" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="0">
@@ -1547,6 +1684,9 @@
       <c r="H46" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I46" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="0">
@@ -1572,6 +1712,9 @@
       <c r="H47" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I47" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="0">
@@ -1597,6 +1740,9 @@
       <c r="H48" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I48" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="0">
@@ -1622,6 +1768,9 @@
       <c r="H49" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I49" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="0">
@@ -1647,6 +1796,9 @@
       <c r="H50" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I50" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="0">
@@ -1672,6 +1824,9 @@
       <c r="H51" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I51" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="0">
@@ -1697,6 +1852,9 @@
       <c r="H52" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I52" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="0">
@@ -1722,6 +1880,9 @@
       <c r="H53" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I53" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="0">
@@ -1747,6 +1908,9 @@
       <c r="H54" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I54" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="0">
@@ -1772,6 +1936,9 @@
       <c r="H55" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I55" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="0">
@@ -1797,6 +1964,9 @@
       <c r="H56" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I56" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="0">
@@ -1822,6 +1992,9 @@
       <c r="H57" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I57" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="0">
@@ -1847,6 +2020,9 @@
       <c r="H58" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I58" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="0">
@@ -1872,6 +2048,9 @@
       <c r="H59" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I59" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="0">
@@ -1897,6 +2076,9 @@
       <c r="H60" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I60" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="0">
@@ -1922,6 +2104,9 @@
       <c r="H61" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I61" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="0">
@@ -1947,6 +2132,9 @@
       <c r="H62" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I62" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="0">
@@ -1977,6 +2165,9 @@
       <c r="H63" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I63" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="0">
@@ -2002,6 +2193,9 @@
       <c r="H64" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I64" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="0">
@@ -2032,6 +2226,9 @@
       <c r="H65" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I65" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="0">
@@ -2057,6 +2254,9 @@
       <c r="H66" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I66" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="0">
@@ -2082,6 +2282,9 @@
       <c r="H67" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I67" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="0">
@@ -2107,6 +2310,9 @@
       <c r="H68" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I68" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="0">
@@ -2132,6 +2338,9 @@
       <c r="H69" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I69" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="0">
@@ -2157,6 +2366,9 @@
       <c r="H70" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I70" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="0">
@@ -2182,6 +2394,9 @@
       <c r="H71" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I71" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="0">
@@ -2207,6 +2422,9 @@
       <c r="H72" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I72" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="0">
@@ -2232,6 +2450,9 @@
       <c r="H73" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I73" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="0">
@@ -2257,6 +2478,9 @@
       <c r="H74" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I74" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="0">
@@ -2282,6 +2506,9 @@
       <c r="H75" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I75" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="0">
@@ -2307,6 +2534,9 @@
       <c r="H76" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I76" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="0">
@@ -2332,6 +2562,9 @@
       <c r="H77" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I77" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="0">
@@ -2339,7 +2572,7 @@
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>RCADS-47-Y-PT</t>
+          <t>RCADS-47-Y-PT-BR</t>
         </is>
       </c>
       <c r="C78" s="0">
@@ -2355,6 +2588,9 @@
         <v>0</v>
       </c>
       <c r="H78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" s="0" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2387,6 +2623,9 @@
       <c r="H79" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I79" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="0">
@@ -2394,7 +2633,7 @@
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>RCADS-25-Y-PT</t>
+          <t>RCADS-25-Y-PT-BR</t>
         </is>
       </c>
       <c r="C80" s="0">
@@ -2406,15 +2645,13 @@
       <c r="E80" s="0">
         <v>1</v>
       </c>
-      <c r="F80" s="0" t="inlineStr">
-        <is>
-          <t>No items</t>
-        </is>
-      </c>
       <c r="G80" s="0" t="b">
         <v>0</v>
       </c>
       <c r="H80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="0" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2447,6 +2684,9 @@
       <c r="H81" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I81" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="0">
@@ -2472,6 +2712,9 @@
       <c r="H82" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I82" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="0">
@@ -2497,6 +2740,9 @@
       <c r="H83" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I83" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="0">
@@ -2522,6 +2768,9 @@
       <c r="H84" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I84" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="0">
@@ -2547,6 +2796,9 @@
       <c r="H85" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I85" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="0">
@@ -2572,6 +2824,9 @@
       <c r="H86" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I86" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="0">
@@ -2597,6 +2852,9 @@
       <c r="H87" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I87" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="0">
@@ -2622,6 +2880,9 @@
       <c r="H88" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I88" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="0">
@@ -2647,6 +2908,9 @@
       <c r="H89" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I89" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="0">
@@ -2672,6 +2936,9 @@
       <c r="H90" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I90" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="0">
@@ -2697,6 +2964,9 @@
       <c r="H91" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I91" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="0">
@@ -2722,6 +2992,9 @@
       <c r="H92" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I92" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="0">
@@ -2747,6 +3020,9 @@
       <c r="H93" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I93" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="0">
@@ -2777,6 +3053,9 @@
       <c r="H94" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I94" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="0">
@@ -2802,6 +3081,9 @@
       <c r="H95" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I95" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="0">
@@ -2827,6 +3109,9 @@
       <c r="H96" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I96" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="0">
@@ -2852,6 +3137,9 @@
       <c r="H97" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I97" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="0">
@@ -2877,6 +3165,9 @@
       <c r="H98" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I98" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="0">
@@ -2902,6 +3193,9 @@
       <c r="H99" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I99" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="0">
@@ -2927,6 +3221,9 @@
       <c r="H100" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I100" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="0">
@@ -2952,6 +3249,9 @@
       <c r="H101" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I101" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="0">
@@ -2977,6 +3277,9 @@
       <c r="H102" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I102" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="0">
@@ -3002,6 +3305,9 @@
       <c r="H103" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I103" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="0">
@@ -3032,6 +3338,9 @@
       <c r="H104" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I104" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="0">
@@ -3062,6 +3371,9 @@
       <c r="H105" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I105" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="0">
@@ -3092,6 +3404,9 @@
       <c r="H106" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I106" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="0">
@@ -3117,6 +3432,9 @@
       <c r="H107" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I107" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="0">
@@ -3142,9 +3460,12 @@
         </is>
       </c>
       <c r="G108" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" s="0" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3172,9 +3493,12 @@
         </is>
       </c>
       <c r="G109" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" s="0" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3207,6 +3531,9 @@
       <c r="H110" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I110" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="0">
@@ -3237,6 +3564,9 @@
       <c r="H111" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I111" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="0">
@@ -3262,6 +3592,9 @@
       <c r="H112" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I112" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="0">
@@ -3287,6 +3620,9 @@
       <c r="H113" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I113" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="0">
@@ -3317,6 +3653,9 @@
       <c r="H114" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I114" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="0">
@@ -3347,6 +3686,9 @@
       <c r="H115" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I115" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="0">
@@ -3377,6 +3719,9 @@
       <c r="H116" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I116" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="0">
@@ -3407,6 +3752,9 @@
       <c r="H117" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I117" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="0">
@@ -3437,6 +3785,9 @@
       <c r="H118" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I118" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="0">
@@ -3467,6 +3818,9 @@
       <c r="H119" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I119" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="0">
@@ -3497,6 +3851,9 @@
       <c r="H120" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I120" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="0">
@@ -3527,6 +3884,9 @@
       <c r="H121" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I121" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="0">
@@ -3557,6 +3917,9 @@
       <c r="H122" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I122" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="0">
@@ -3587,6 +3950,9 @@
       <c r="H123" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I123" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="0">
@@ -3617,6 +3983,9 @@
       <c r="H124" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I124" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="0">
@@ -3647,6 +4016,9 @@
       <c r="H125" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I125" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="0">
@@ -3677,6 +4049,9 @@
       <c r="H126" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I126" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="0">
@@ -3707,6 +4082,9 @@
       <c r="H127" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I127" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="0">
@@ -3737,6 +4115,9 @@
       <c r="H128" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I128" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="0">
@@ -3762,6 +4143,9 @@
       <c r="H129" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I129" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="0">
@@ -3787,6 +4171,9 @@
       <c r="H130" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I130" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="0">
@@ -3812,6 +4199,9 @@
       <c r="H131" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I131" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="0">
@@ -3837,6 +4227,9 @@
       <c r="H132" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I132" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="0">
@@ -3867,6 +4260,9 @@
       <c r="H133" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I133" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="0">
@@ -3892,6 +4288,9 @@
       <c r="H134" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="I134" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="0">
@@ -3917,6 +4316,9 @@
       <c r="H135" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="I135" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="0">
@@ -3942,6 +4344,9 @@
       <c r="H136" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="I136" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="0">
@@ -3967,6 +4372,9 @@
       <c r="H137" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="I137" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="0">
@@ -3992,6 +4400,9 @@
       <c r="H138" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="I138" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="0">
@@ -4017,6 +4428,9 @@
       <c r="H139" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="I139" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="0">
@@ -4042,6 +4456,9 @@
       <c r="H140" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="I140" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="0">
@@ -4067,6 +4484,9 @@
       <c r="H141" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="I141" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="0">
@@ -4097,6 +4517,9 @@
       <c r="H142" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I142" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="0">
@@ -4127,6 +4550,9 @@
       <c r="H143" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I143" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="0">
@@ -4157,6 +4583,9 @@
       <c r="H144" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="I144" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="0">
@@ -4187,6 +4616,9 @@
       <c r="H145" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I145" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="0">
@@ -4217,6 +4649,9 @@
       <c r="H146" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I146" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="0">
@@ -4247,6 +4682,9 @@
       <c r="H147" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I147" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="0">
@@ -4277,6 +4715,9 @@
       <c r="H148" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="I148" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="0">
@@ -4307,6 +4748,9 @@
       <c r="H149" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="I149" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="0">
@@ -4337,6 +4781,9 @@
       <c r="H150" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="I150" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="0">
@@ -4367,6 +4814,9 @@
       <c r="H151" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I151" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="0">
@@ -4397,6 +4847,9 @@
       <c r="H152" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I152" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="0">
@@ -4427,6 +4880,9 @@
       <c r="H153" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="I153" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="0">
@@ -4455,6 +4911,141 @@
         <v>1</v>
       </c>
       <c r="H154" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="155">
+      <c r="A155" s="0">
+        <v>154</v>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-IT</t>
+        </is>
+      </c>
+      <c r="C155" s="0">
+        <v>1</v>
+      </c>
+      <c r="D155" s="0">
+        <v>36</v>
+      </c>
+      <c r="E155" s="0">
+        <v>1</v>
+      </c>
+      <c r="F155" s="0" t="inlineStr">
+        <is>
+          <t>needs to be entered</t>
+        </is>
+      </c>
+      <c r="G155" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="156">
+      <c r="A156" s="0">
+        <v>155</v>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-IT</t>
+        </is>
+      </c>
+      <c r="C156" s="0">
+        <v>1</v>
+      </c>
+      <c r="D156" s="0">
+        <v>36</v>
+      </c>
+      <c r="E156" s="0">
+        <v>2</v>
+      </c>
+      <c r="F156" s="0" t="inlineStr">
+        <is>
+          <t>needs to be entered</t>
+        </is>
+      </c>
+      <c r="G156" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="157">
+      <c r="A157" s="0">
+        <v>156</v>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-EN-2</t>
+        </is>
+      </c>
+      <c r="C157" s="0">
+        <v>1</v>
+      </c>
+      <c r="D157" s="0">
+        <v>1</v>
+      </c>
+      <c r="E157" s="0">
+        <v>2</v>
+      </c>
+      <c r="F157" s="0" t="inlineStr">
+        <is>
+          <t>gender neutral version. Needs to be entered</t>
+        </is>
+      </c>
+      <c r="G157" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="158">
+      <c r="A158" s="0">
+        <v>157</v>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-EN-2</t>
+        </is>
+      </c>
+      <c r="C158" s="0">
+        <v>1</v>
+      </c>
+      <c r="D158" s="0">
+        <v>1</v>
+      </c>
+      <c r="E158" s="0">
+        <v>2</v>
+      </c>
+      <c r="F158" s="0" t="inlineStr">
+        <is>
+          <t>gender neutral version. Needs to be entered</t>
+        </is>
+      </c>
+      <c r="G158" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I158" s="0" t="b">
         <v>0</v>
       </c>
     </row>

--- a/rcads/data/xls/10_Instruments.xlsx
+++ b/rcads/data/xls/10_Instruments.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_10_Instruments"/>
   </sheets>
   <definedNames>
-    <definedName name="_10_Instruments">'_10_Instruments'!$A$1:$I$158</definedName>
+    <definedName name="_10_Instruments">'_10_Instruments'!$A$1:$J$162</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -397,6 +397,11 @@
           <t>ReadRighttoLeft</t>
         </is>
       </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Unavailable(NotGenerated)</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="0">
@@ -425,6 +430,9 @@
       <c r="I2" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J2" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="0">
@@ -451,6 +459,9 @@
         <v>0</v>
       </c>
       <c r="I3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="b">
         <v>0</v>
       </c>
     </row>
@@ -481,6 +492,9 @@
       <c r="I4" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J4" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="0">
@@ -509,6 +523,9 @@
       <c r="I5" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J5" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="0">
@@ -537,6 +554,9 @@
       <c r="I6" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J6" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="0">
@@ -565,6 +585,9 @@
       <c r="I7" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J7" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="0">
@@ -593,6 +616,9 @@
       <c r="I8" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J8" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="0">
@@ -621,6 +647,9 @@
       <c r="I9" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J9" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="0">
@@ -649,6 +678,9 @@
       <c r="I10" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J10" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="0">
@@ -677,6 +709,9 @@
       <c r="I11" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J11" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="0">
@@ -705,6 +740,9 @@
       <c r="I12" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J12" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="0">
@@ -733,6 +771,9 @@
       <c r="I13" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J13" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="0">
@@ -766,6 +807,9 @@
       <c r="I14" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J14" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="0">
@@ -799,6 +843,9 @@
       <c r="I15" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J15" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="0">
@@ -832,6 +879,9 @@
       <c r="I16" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J16" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="0">
@@ -865,6 +915,9 @@
       <c r="I17" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J17" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="0">
@@ -893,6 +946,9 @@
       <c r="I18" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J18" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="0">
@@ -921,6 +977,9 @@
       <c r="I19" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J19" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="0">
@@ -949,6 +1008,9 @@
       <c r="I20" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J20" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="0">
@@ -977,6 +1039,9 @@
       <c r="I21" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J21" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="0">
@@ -1005,6 +1070,9 @@
       <c r="I22" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="J22" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="0">
@@ -1024,19 +1092,17 @@
       <c r="E23" s="0">
         <v>2</v>
       </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>No items</t>
-        </is>
-      </c>
       <c r="G23" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="0" t="b">
         <v>0</v>
       </c>
       <c r="I23" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="J23" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
@@ -1066,6 +1132,9 @@
       <c r="I24" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="J24" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="0">
@@ -1085,19 +1154,17 @@
       <c r="E25" s="0">
         <v>2</v>
       </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>Not yet generated</t>
-        </is>
-      </c>
       <c r="G25" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="0" t="b">
         <v>0</v>
       </c>
       <c r="I25" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="J25" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
@@ -1127,6 +1194,9 @@
       <c r="I26" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J26" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="0">
@@ -1155,6 +1225,9 @@
       <c r="I27" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J27" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="0">
@@ -1183,6 +1256,9 @@
       <c r="I28" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J28" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="0">
@@ -1211,6 +1287,9 @@
       <c r="I29" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J29" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="0">
@@ -1239,6 +1318,9 @@
       <c r="I30" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J30" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="0">
@@ -1267,6 +1349,9 @@
       <c r="I31" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J31" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="0">
@@ -1295,6 +1380,9 @@
       <c r="I32" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J32" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="0">
@@ -1323,6 +1411,9 @@
       <c r="I33" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J33" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="0">
@@ -1351,6 +1442,9 @@
       <c r="I34" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J34" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="0">
@@ -1379,6 +1473,9 @@
       <c r="I35" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J35" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="0">
@@ -1407,6 +1504,9 @@
       <c r="I36" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J36" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="0">
@@ -1435,6 +1535,9 @@
       <c r="I37" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J37" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="0">
@@ -1463,6 +1566,9 @@
       <c r="I38" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J38" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="0">
@@ -1491,6 +1597,9 @@
       <c r="I39" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J39" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="0">
@@ -1519,6 +1628,9 @@
       <c r="I40" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J40" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="0">
@@ -1547,6 +1659,9 @@
       <c r="I41" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J41" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="0">
@@ -1575,6 +1690,9 @@
       <c r="I42" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J42" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="0">
@@ -1603,6 +1721,9 @@
       <c r="I43" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J43" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="0">
@@ -1631,6 +1752,9 @@
       <c r="I44" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J44" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="0">
@@ -1659,6 +1783,9 @@
       <c r="I45" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J45" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="0">
@@ -1687,6 +1814,9 @@
       <c r="I46" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J46" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="0">
@@ -1715,6 +1845,9 @@
       <c r="I47" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J47" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="0">
@@ -1743,6 +1876,9 @@
       <c r="I48" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J48" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="0">
@@ -1771,6 +1907,9 @@
       <c r="I49" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J49" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="0">
@@ -1799,6 +1938,9 @@
       <c r="I50" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J50" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="0">
@@ -1827,6 +1969,9 @@
       <c r="I51" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J51" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="0">
@@ -1855,6 +2000,9 @@
       <c r="I52" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J52" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="0">
@@ -1883,6 +2031,9 @@
       <c r="I53" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J53" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="0">
@@ -1911,6 +2062,9 @@
       <c r="I54" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J54" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="0">
@@ -1939,6 +2093,9 @@
       <c r="I55" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J55" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="0">
@@ -1967,6 +2124,9 @@
       <c r="I56" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J56" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="0">
@@ -1995,6 +2155,9 @@
       <c r="I57" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J57" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="0">
@@ -2023,6 +2186,9 @@
       <c r="I58" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J58" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="0">
@@ -2051,6 +2217,9 @@
       <c r="I59" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J59" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="0">
@@ -2079,6 +2248,9 @@
       <c r="I60" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J60" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="0">
@@ -2107,6 +2279,9 @@
       <c r="I61" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J61" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="0">
@@ -2135,6 +2310,9 @@
       <c r="I62" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J62" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="0">
@@ -2168,6 +2346,9 @@
       <c r="I63" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J63" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="0">
@@ -2196,6 +2377,9 @@
       <c r="I64" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J64" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="0">
@@ -2229,6 +2413,9 @@
       <c r="I65" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J65" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="0">
@@ -2257,6 +2444,9 @@
       <c r="I66" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J66" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="0">
@@ -2285,6 +2475,9 @@
       <c r="I67" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J67" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="0">
@@ -2313,6 +2506,9 @@
       <c r="I68" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J68" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="0">
@@ -2341,6 +2537,9 @@
       <c r="I69" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J69" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="0">
@@ -2369,6 +2568,9 @@
       <c r="I70" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J70" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="0">
@@ -2397,6 +2599,9 @@
       <c r="I71" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J71" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="0">
@@ -2425,6 +2630,9 @@
       <c r="I72" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J72" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="0">
@@ -2453,6 +2661,9 @@
       <c r="I73" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J73" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="0">
@@ -2481,6 +2692,9 @@
       <c r="I74" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J74" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="0">
@@ -2509,6 +2723,9 @@
       <c r="I75" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J75" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="0">
@@ -2537,6 +2754,9 @@
       <c r="I76" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J76" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="0">
@@ -2565,6 +2785,9 @@
       <c r="I77" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J77" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="0">
@@ -2593,6 +2816,9 @@
       <c r="I78" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J78" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="0">
@@ -2626,6 +2852,9 @@
       <c r="I79" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J79" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="0">
@@ -2654,6 +2883,9 @@
       <c r="I80" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J80" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="0">
@@ -2687,6 +2919,9 @@
       <c r="I81" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J81" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="0">
@@ -2715,6 +2950,9 @@
       <c r="I82" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J82" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="0">
@@ -2743,6 +2981,9 @@
       <c r="I83" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J83" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="0">
@@ -2771,6 +3012,9 @@
       <c r="I84" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J84" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="0">
@@ -2799,6 +3043,9 @@
       <c r="I85" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J85" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="0">
@@ -2827,6 +3074,9 @@
       <c r="I86" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J86" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="0">
@@ -2855,6 +3105,9 @@
       <c r="I87" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J87" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="0">
@@ -2883,6 +3136,9 @@
       <c r="I88" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J88" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="0">
@@ -2911,6 +3167,9 @@
       <c r="I89" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J89" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="0">
@@ -2939,6 +3198,9 @@
       <c r="I90" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J90" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="0">
@@ -2967,6 +3229,9 @@
       <c r="I91" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J91" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="0">
@@ -2995,6 +3260,9 @@
       <c r="I92" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J92" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="0">
@@ -3023,6 +3291,9 @@
       <c r="I93" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J93" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="0">
@@ -3056,6 +3327,9 @@
       <c r="I94" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J94" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="0">
@@ -3084,6 +3358,9 @@
       <c r="I95" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J95" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="0">
@@ -3112,6 +3389,9 @@
       <c r="I96" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J96" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="0">
@@ -3140,6 +3420,9 @@
       <c r="I97" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J97" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="0">
@@ -3168,6 +3451,9 @@
       <c r="I98" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J98" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="0">
@@ -3196,6 +3482,9 @@
       <c r="I99" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J99" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="0">
@@ -3224,6 +3513,9 @@
       <c r="I100" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J100" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="0">
@@ -3252,6 +3544,9 @@
       <c r="I101" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J101" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="0">
@@ -3280,6 +3575,9 @@
       <c r="I102" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J102" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="0">
@@ -3308,6 +3606,9 @@
       <c r="I103" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J103" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="0">
@@ -3341,6 +3642,9 @@
       <c r="I104" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J104" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="0">
@@ -3374,6 +3678,9 @@
       <c r="I105" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J105" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="0">
@@ -3407,6 +3714,9 @@
       <c r="I106" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J106" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="0">
@@ -3435,6 +3745,9 @@
       <c r="I107" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J107" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="0">
@@ -3468,6 +3781,9 @@
       <c r="I108" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J108" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="0">
@@ -3501,6 +3817,9 @@
       <c r="I109" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J109" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="0">
@@ -3534,6 +3853,9 @@
       <c r="I110" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J110" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="0">
@@ -3567,6 +3889,9 @@
       <c r="I111" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J111" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="0">
@@ -3595,6 +3920,9 @@
       <c r="I112" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J112" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="0">
@@ -3623,6 +3951,9 @@
       <c r="I113" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J113" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="0">
@@ -3656,6 +3987,9 @@
       <c r="I114" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J114" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="0">
@@ -3689,6 +4023,9 @@
       <c r="I115" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J115" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="0">
@@ -3722,6 +4059,9 @@
       <c r="I116" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J116" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="0">
@@ -3755,6 +4095,9 @@
       <c r="I117" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J117" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="0">
@@ -3788,6 +4131,9 @@
       <c r="I118" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J118" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="0">
@@ -3821,6 +4167,9 @@
       <c r="I119" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J119" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="0">
@@ -3854,6 +4203,9 @@
       <c r="I120" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J120" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="0">
@@ -3887,6 +4239,9 @@
       <c r="I121" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J121" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="0">
@@ -3920,6 +4275,9 @@
       <c r="I122" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J122" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="0">
@@ -3953,6 +4311,9 @@
       <c r="I123" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J123" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="0">
@@ -3986,6 +4347,9 @@
       <c r="I124" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J124" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="0">
@@ -4019,6 +4383,9 @@
       <c r="I125" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J125" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="0">
@@ -4052,6 +4419,9 @@
       <c r="I126" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J126" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="0">
@@ -4085,6 +4455,9 @@
       <c r="I127" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J127" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="0">
@@ -4118,6 +4491,9 @@
       <c r="I128" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J128" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="0">
@@ -4146,6 +4522,9 @@
       <c r="I129" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J129" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="0">
@@ -4174,6 +4553,9 @@
       <c r="I130" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J130" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="0">
@@ -4202,6 +4584,9 @@
       <c r="I131" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J131" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="0">
@@ -4230,6 +4615,9 @@
       <c r="I132" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J132" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="0">
@@ -4263,6 +4651,9 @@
       <c r="I133" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J133" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="0">
@@ -4291,6 +4682,9 @@
       <c r="I134" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J134" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="0">
@@ -4319,6 +4713,9 @@
       <c r="I135" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J135" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="0">
@@ -4347,6 +4744,9 @@
       <c r="I136" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J136" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="0">
@@ -4375,6 +4775,9 @@
       <c r="I137" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J137" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="0">
@@ -4403,6 +4806,9 @@
       <c r="I138" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J138" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="0">
@@ -4431,6 +4837,9 @@
       <c r="I139" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J139" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="0">
@@ -4459,6 +4868,9 @@
       <c r="I140" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J140" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="0">
@@ -4487,6 +4899,9 @@
       <c r="I141" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J141" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="0">
@@ -4520,6 +4935,9 @@
       <c r="I142" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J142" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="0">
@@ -4553,6 +4971,9 @@
       <c r="I143" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J143" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="0">
@@ -4586,6 +5007,9 @@
       <c r="I144" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J144" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="0">
@@ -4619,6 +5043,9 @@
       <c r="I145" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J145" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="0">
@@ -4652,6 +5079,9 @@
       <c r="I146" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J146" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="0">
@@ -4685,6 +5115,9 @@
       <c r="I147" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J147" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="0">
@@ -4718,6 +5151,9 @@
       <c r="I148" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J148" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="0">
@@ -4751,6 +5187,9 @@
       <c r="I149" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J149" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="0">
@@ -4784,6 +5223,9 @@
       <c r="I150" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J150" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="0">
@@ -4817,6 +5259,9 @@
       <c r="I151" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J151" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="0">
@@ -4850,6 +5295,9 @@
       <c r="I152" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J152" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="0">
@@ -4883,6 +5331,9 @@
       <c r="I153" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J153" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="0">
@@ -4916,6 +5367,9 @@
       <c r="I154" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J154" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="0">
@@ -4949,6 +5403,9 @@
       <c r="I155" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J155" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="0">
@@ -4982,6 +5439,9 @@
       <c r="I156" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J156" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="0">
@@ -5015,6 +5475,9 @@
       <c r="I157" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J157" s="0" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="0">
@@ -5046,6 +5509,153 @@
         <v>1</v>
       </c>
       <c r="I158" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="0">
+        <v>158</v>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-NY</t>
+        </is>
+      </c>
+      <c r="C159" s="0">
+        <v>1</v>
+      </c>
+      <c r="D159" s="0">
+        <v>34</v>
+      </c>
+      <c r="E159" s="0">
+        <v>1</v>
+      </c>
+      <c r="F159" s="0" t="inlineStr">
+        <is>
+          <t>needs to be entered</t>
+        </is>
+      </c>
+      <c r="G159" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="160">
+      <c r="A160" s="0">
+        <v>159</v>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-NY</t>
+        </is>
+      </c>
+      <c r="C160" s="0">
+        <v>1</v>
+      </c>
+      <c r="D160" s="0">
+        <v>34</v>
+      </c>
+      <c r="E160" s="0">
+        <v>2</v>
+      </c>
+      <c r="F160" s="0" t="inlineStr">
+        <is>
+          <t>needs to be entered</t>
+        </is>
+      </c>
+      <c r="G160" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I160" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="0">
+        <v>160</v>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-NY</t>
+        </is>
+      </c>
+      <c r="C161" s="0">
+        <v>1</v>
+      </c>
+      <c r="D161" s="0">
+        <v>34</v>
+      </c>
+      <c r="E161" s="0">
+        <v>1</v>
+      </c>
+      <c r="F161" s="0" t="inlineStr">
+        <is>
+          <t>needs to be entered</t>
+        </is>
+      </c>
+      <c r="G161" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="0">
+        <v>161</v>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-NY</t>
+        </is>
+      </c>
+      <c r="C162" s="0">
+        <v>1</v>
+      </c>
+      <c r="D162" s="0">
+        <v>34</v>
+      </c>
+      <c r="E162" s="0">
+        <v>2</v>
+      </c>
+      <c r="F162" s="0" t="inlineStr">
+        <is>
+          <t>needs to be entered</t>
+        </is>
+      </c>
+      <c r="G162" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I162" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="0" t="b">
         <v>0</v>
       </c>
     </row>

--- a/rcads/data/xls/10_Instruments.xlsx
+++ b/rcads/data/xls/10_Instruments.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_10_Instruments"/>
   </sheets>
   <definedNames>
-    <definedName name="_10_Instruments">'_10_Instruments'!$A$1:$J$162</definedName>
+    <definedName name="_10_Instruments">'_10_Instruments'!$A$1:$J$170</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -4921,13 +4921,8 @@
       <c r="E142" s="0">
         <v>1</v>
       </c>
-      <c r="F142" s="0" t="inlineStr">
-        <is>
-          <t>No items</t>
-        </is>
-      </c>
       <c r="G142" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" s="0" t="b">
         <v>0</v>
@@ -4957,13 +4952,8 @@
       <c r="E143" s="0">
         <v>1</v>
       </c>
-      <c r="F143" s="0" t="inlineStr">
-        <is>
-          <t>No items</t>
-        </is>
-      </c>
       <c r="G143" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" s="0" t="b">
         <v>0</v>
@@ -4993,13 +4983,8 @@
       <c r="E144" s="0">
         <v>1</v>
       </c>
-      <c r="F144" s="0" t="inlineStr">
-        <is>
-          <t>No items</t>
-        </is>
-      </c>
       <c r="G144" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" s="0" t="b">
         <v>1</v>
@@ -5137,13 +5122,8 @@
       <c r="E148" s="0">
         <v>2</v>
       </c>
-      <c r="F148" s="0" t="inlineStr">
-        <is>
-          <t>No items</t>
-        </is>
-      </c>
       <c r="G148" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" s="0" t="b">
         <v>1</v>
@@ -5173,13 +5153,8 @@
       <c r="E149" s="0">
         <v>1</v>
       </c>
-      <c r="F149" s="0" t="inlineStr">
-        <is>
-          <t>No items</t>
-        </is>
-      </c>
       <c r="G149" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" s="0" t="b">
         <v>1</v>
@@ -5209,13 +5184,8 @@
       <c r="E150" s="0">
         <v>2</v>
       </c>
-      <c r="F150" s="0" t="inlineStr">
-        <is>
-          <t>No items</t>
-        </is>
-      </c>
       <c r="G150" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" s="0" t="b">
         <v>1</v>
@@ -5656,6 +5626,254 @@
         <v>0</v>
       </c>
       <c r="J162" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="0">
+        <v>162</v>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-VI</t>
+        </is>
+      </c>
+      <c r="C163" s="0">
+        <v>1</v>
+      </c>
+      <c r="D163" s="0">
+        <v>39</v>
+      </c>
+      <c r="E163" s="0">
+        <v>1</v>
+      </c>
+      <c r="G163" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H163" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I163" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="0">
+        <v>163</v>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-VI</t>
+        </is>
+      </c>
+      <c r="C164" s="0">
+        <v>1</v>
+      </c>
+      <c r="D164" s="0">
+        <v>39</v>
+      </c>
+      <c r="E164" s="0">
+        <v>2</v>
+      </c>
+      <c r="G164" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H164" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I164" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="0">
+        <v>164</v>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-VI</t>
+        </is>
+      </c>
+      <c r="C165" s="0">
+        <v>1</v>
+      </c>
+      <c r="D165" s="0">
+        <v>39</v>
+      </c>
+      <c r="E165" s="0">
+        <v>1</v>
+      </c>
+      <c r="G165" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H165" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I165" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="0">
+        <v>165</v>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-VI</t>
+        </is>
+      </c>
+      <c r="C166" s="0">
+        <v>1</v>
+      </c>
+      <c r="D166" s="0">
+        <v>39</v>
+      </c>
+      <c r="E166" s="0">
+        <v>2</v>
+      </c>
+      <c r="G166" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H166" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I166" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="0">
+        <v>166</v>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-MR</t>
+        </is>
+      </c>
+      <c r="C167" s="0">
+        <v>1</v>
+      </c>
+      <c r="D167" s="0">
+        <v>40</v>
+      </c>
+      <c r="E167" s="0">
+        <v>1</v>
+      </c>
+      <c r="G167" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H167" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I167" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="0">
+        <v>167</v>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-MR</t>
+        </is>
+      </c>
+      <c r="C168" s="0">
+        <v>1</v>
+      </c>
+      <c r="D168" s="0">
+        <v>40</v>
+      </c>
+      <c r="E168" s="0">
+        <v>2</v>
+      </c>
+      <c r="G168" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H168" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I168" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="0">
+        <v>168</v>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-MR</t>
+        </is>
+      </c>
+      <c r="C169" s="0">
+        <v>1</v>
+      </c>
+      <c r="D169" s="0">
+        <v>40</v>
+      </c>
+      <c r="E169" s="0">
+        <v>1</v>
+      </c>
+      <c r="G169" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H169" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I169" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="0">
+        <v>169</v>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-MR</t>
+        </is>
+      </c>
+      <c r="C170" s="0">
+        <v>1</v>
+      </c>
+      <c r="D170" s="0">
+        <v>40</v>
+      </c>
+      <c r="E170" s="0">
+        <v>2</v>
+      </c>
+      <c r="G170" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H170" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I170" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="0" t="b">
         <v>0</v>
       </c>
     </row>
